--- a/results/mp/tinybert/corona/confidence/168/0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,154 +43,148 @@
     <t>killed</t>
   </si>
   <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>accused</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>chaos</t>
+    <t>died</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>beauty</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>proud</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>sharing</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>energy</t>
@@ -199,67 +193,82 @@
     <t>important</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>protect</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>like</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>join</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>.</t>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
 </sst>
 </file>
@@ -617,7 +626,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +634,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,10 +698,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -736,13 +745,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C4">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -754,19 +763,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -778,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -786,37 +795,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -828,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -836,37 +845,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.92</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +895,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>171</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +913,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.96875</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -936,13 +945,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7647058823529411</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +963,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K8">
-        <v>0.9583333333333334</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +995,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7272727272727273</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +1013,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K9">
-        <v>0.9444444444444444</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,13 +1045,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1054,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>153</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K10">
-        <v>0.8888888888888888</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1095,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6948051948051948</v>
+        <v>0.189922480620155</v>
       </c>
       <c r="C11">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1113,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>418</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1136,13 +1145,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,19 +1163,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,281 +1195,161 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.05277777777777778</v>
       </c>
       <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>341</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="L13">
+        <v>23</v>
+      </c>
+      <c r="M13">
+        <v>23</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="L14">
+        <v>33</v>
+      </c>
+      <c r="M14">
+        <v>33</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L15">
+        <v>65</v>
+      </c>
+      <c r="M15">
+        <v>65</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16">
+        <v>0.78125</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L17">
+        <v>28</v>
+      </c>
+      <c r="M17">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>8</v>
       </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K13">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L13">
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="C14">
-        <v>11</v>
-      </c>
-      <c r="D14">
-        <v>11</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14">
-        <v>0.875</v>
-      </c>
-      <c r="L14">
-        <v>7</v>
-      </c>
-      <c r="M14">
-        <v>7</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.3571428571428572</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>18</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15">
-        <v>0.875</v>
-      </c>
-      <c r="L15">
-        <v>14</v>
-      </c>
-      <c r="M15">
-        <v>14</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3133047210300429</v>
-      </c>
-      <c r="C16">
-        <v>73</v>
-      </c>
-      <c r="D16">
-        <v>73</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>160</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>0.8627450980392157</v>
-      </c>
-      <c r="L16">
-        <v>44</v>
-      </c>
-      <c r="M16">
-        <v>44</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.2962962962962963</v>
-      </c>
-      <c r="C17">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>19</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>0.85</v>
-      </c>
-      <c r="L17">
-        <v>34</v>
-      </c>
-      <c r="M17">
-        <v>34</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C18">
-        <v>22</v>
-      </c>
-      <c r="D18">
-        <v>22</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>64</v>
-      </c>
+    </row>
+    <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K18">
-        <v>0.8333333333333334</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L18">
         <v>45</v>
@@ -1478,432 +1367,360 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19">
+        <v>0.75</v>
+      </c>
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19">
+        <v>18</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17">
+      <c r="J20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.75</v>
+      </c>
+      <c r="L20">
+        <v>27</v>
+      </c>
+      <c r="M20">
+        <v>27</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
+    <row r="21" spans="10:17">
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21">
+        <v>0.725</v>
+      </c>
+      <c r="L21">
+        <v>87</v>
+      </c>
+      <c r="M21">
+        <v>87</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
+      <c r="J22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>0.7183098591549296</v>
+      </c>
+      <c r="L22">
+        <v>102</v>
+      </c>
+      <c r="M22">
+        <v>102</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
+      <c r="J23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>0.7037037037037037</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>0.6981132075471698</v>
+      </c>
+      <c r="L24">
+        <v>74</v>
+      </c>
+      <c r="M24">
+        <v>74</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>0.69375</v>
+      </c>
+      <c r="L25">
+        <v>111</v>
+      </c>
+      <c r="M25">
+        <v>111</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L26">
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L27">
+        <v>34</v>
+      </c>
+      <c r="M27">
+        <v>34</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28">
+        <v>0.6595744680851063</v>
+      </c>
+      <c r="L28">
+        <v>31</v>
+      </c>
+      <c r="M28">
+        <v>31</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K29">
+        <v>0.6521739130434783</v>
+      </c>
+      <c r="L29">
+        <v>15</v>
+      </c>
+      <c r="M29">
+        <v>15</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L30">
+        <v>39</v>
+      </c>
+      <c r="M30">
+        <v>39</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>0.1625</v>
-      </c>
-      <c r="C19">
-        <v>13</v>
-      </c>
-      <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>67</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L19">
-        <v>42</v>
-      </c>
-      <c r="M19">
-        <v>42</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>18</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>117</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K20">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L20">
-        <v>46</v>
-      </c>
-      <c r="M20">
-        <v>46</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.1</v>
-      </c>
-      <c r="C21">
-        <v>11</v>
-      </c>
-      <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>99</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K21">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="L21">
-        <v>9</v>
-      </c>
-      <c r="M21">
-        <v>9</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L22">
-        <v>21</v>
-      </c>
-      <c r="M22">
-        <v>21</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="K23">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L23">
-        <v>45</v>
-      </c>
-      <c r="M23">
-        <v>45</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K31">
+        <v>0.6</v>
+      </c>
+      <c r="L31">
+        <v>30</v>
+      </c>
+      <c r="M31">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K24">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K25">
-        <v>0.7647058823529411</v>
-      </c>
-      <c r="L25">
-        <v>13</v>
-      </c>
-      <c r="M25">
-        <v>13</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K26">
-        <v>0.75</v>
-      </c>
-      <c r="L26">
-        <v>9</v>
-      </c>
-      <c r="M26">
-        <v>9</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K27">
-        <v>0.7</v>
-      </c>
-      <c r="L27">
-        <v>7</v>
-      </c>
-      <c r="M27">
-        <v>7</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L28">
-        <v>18</v>
-      </c>
-      <c r="M28">
-        <v>18</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29">
-        <v>0.6896551724137931</v>
-      </c>
-      <c r="L29">
+      <c r="K32">
+        <v>0.5882352941176471</v>
+      </c>
+      <c r="L32">
         <v>20</v>
       </c>
-      <c r="M29">
+      <c r="M32">
         <v>20</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="L30">
-        <v>26</v>
-      </c>
-      <c r="M30">
-        <v>26</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31">
-        <v>0.64</v>
-      </c>
-      <c r="L31">
-        <v>16</v>
-      </c>
-      <c r="M31">
-        <v>16</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K32">
-        <v>0.6301369863013698</v>
-      </c>
-      <c r="L32">
-        <v>46</v>
-      </c>
-      <c r="M32">
-        <v>46</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -1914,21 +1731,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="K33">
-        <v>0.6153846153846154</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L33">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1940,21 +1757,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K34">
-        <v>0.5909090909090909</v>
+        <v>0.5625</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1966,21 +1783,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K35">
-        <v>0.5882352941176471</v>
+        <v>0.5091383812010444</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1992,21 +1809,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>188</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K36">
-        <v>0.5789473684210527</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2018,21 +1835,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K37">
-        <v>0.5757575757575758</v>
+        <v>0.4508474576271186</v>
       </c>
       <c r="L37">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="M37">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2044,21 +1861,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K38">
-        <v>0.5633802816901409</v>
+        <v>0.4470588235294118</v>
       </c>
       <c r="L38">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="M38">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2070,21 +1887,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>93</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K39">
-        <v>0.5600000000000001</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2096,21 +1913,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K40">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2122,21 +1939,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K41">
-        <v>0.4791666666666667</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L41">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2148,21 +1965,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K42">
-        <v>0.4782608695652174</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L42">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M42">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2174,15 +1991,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>0.4642857142857143</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L43">
         <v>13</v>
@@ -2200,21 +2017,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K44">
-        <v>0.4583333333333333</v>
+        <v>0.34375</v>
       </c>
       <c r="L44">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M44">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2226,21 +2043,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K45">
-        <v>0.4573643410852713</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L45">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="M45">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2252,21 +2069,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K46">
-        <v>0.4571428571428571</v>
+        <v>0.3263598326359833</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2278,21 +2095,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>19</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K47">
-        <v>0.4333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L47">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="M47">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2304,21 +2121,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K48">
-        <v>0.3157894736842105</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="L48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2330,21 +2147,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K49">
-        <v>0.3125</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L49">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2356,21 +2173,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="K50">
-        <v>0.2916666666666667</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2382,21 +2199,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="K51">
-        <v>0.1891891891891892</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="L51">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M51">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2408,21 +2225,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>30</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="K52">
-        <v>0.1296296296296296</v>
+        <v>0.02376599634369287</v>
       </c>
       <c r="L52">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2434,21 +2251,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>47</v>
+        <v>534</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K53">
-        <v>0.01951219512195122</v>
+        <v>0.02348993288590604</v>
       </c>
       <c r="L53">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2460,21 +2277,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>402</v>
+        <v>873</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K54">
-        <v>0.01754385964912281</v>
+        <v>0.01833333333333333</v>
       </c>
       <c r="L54">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2486,59 +2303,345 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>448</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.008018327605956471</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>1732</v>
+        <v>969</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K56">
+        <v>0.01553829078801332</v>
+      </c>
+      <c r="L56">
+        <v>14</v>
+      </c>
+      <c r="M56">
+        <v>14</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57">
+        <v>0.01165501165501166</v>
+      </c>
+      <c r="L57">
+        <v>15</v>
+      </c>
+      <c r="M57">
+        <v>17</v>
+      </c>
+      <c r="N57">
+        <v>0.88</v>
+      </c>
+      <c r="O57">
+        <v>0.12</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K58">
+        <v>0.01067839195979899</v>
+      </c>
+      <c r="L58">
+        <v>17</v>
+      </c>
+      <c r="M58">
+        <v>19</v>
+      </c>
+      <c r="N58">
+        <v>0.89</v>
+      </c>
+      <c r="O58">
+        <v>0.11</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K59">
+        <v>0.01064265247646336</v>
+      </c>
+      <c r="L59">
+        <v>26</v>
+      </c>
+      <c r="M59">
+        <v>28</v>
+      </c>
+      <c r="N59">
+        <v>0.93</v>
+      </c>
+      <c r="O59">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60">
+        <v>0.009359790340696368</v>
+      </c>
+      <c r="L60">
+        <v>25</v>
+      </c>
+      <c r="M60">
+        <v>27</v>
+      </c>
+      <c r="N60">
+        <v>0.93</v>
+      </c>
+      <c r="O60">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K61">
+        <v>0.007807807807807808</v>
+      </c>
+      <c r="L61">
+        <v>39</v>
+      </c>
+      <c r="M61">
+        <v>40</v>
+      </c>
+      <c r="N61">
+        <v>0.97</v>
+      </c>
+      <c r="O61">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K62">
+        <v>0.006954102920723227</v>
+      </c>
+      <c r="L62">
+        <v>15</v>
+      </c>
+      <c r="M62">
+        <v>16</v>
+      </c>
+      <c r="N62">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O62">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K63">
+        <v>0.006932409012131715</v>
+      </c>
+      <c r="L63">
+        <v>16</v>
+      </c>
+      <c r="M63">
+        <v>17</v>
+      </c>
+      <c r="N63">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O63">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="K56">
-        <v>0.004175365344467641</v>
-      </c>
-      <c r="L56">
-        <v>8</v>
-      </c>
-      <c r="M56">
-        <v>8</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>1908</v>
+      <c r="K64">
+        <v>0.006007393715341959</v>
+      </c>
+      <c r="L64">
+        <v>26</v>
+      </c>
+      <c r="M64">
+        <v>26</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K65">
+        <v>0.005884825556956704</v>
+      </c>
+      <c r="L65">
+        <v>14</v>
+      </c>
+      <c r="M65">
+        <v>14</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="66" spans="10:17">
+      <c r="J66" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K66">
+        <v>0.005473277527366388</v>
+      </c>
+      <c r="L66">
+        <v>17</v>
+      </c>
+      <c r="M66">
+        <v>18</v>
+      </c>
+      <c r="N66">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O66">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>3089</v>
+      </c>
+    </row>
+    <row r="67" spans="10:17">
+      <c r="J67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K67">
+        <v>0.00484402247626429</v>
+      </c>
+      <c r="L67">
+        <v>25</v>
+      </c>
+      <c r="M67">
+        <v>29</v>
+      </c>
+      <c r="N67">
+        <v>0.86</v>
+      </c>
+      <c r="O67">
+        <v>0.14</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>5136</v>
       </c>
     </row>
   </sheetData>
